--- a/ServidorDentista.xlsx
+++ b/ServidorDentista.xlsx
@@ -2,39 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamut\Desktop\PWebDent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F39409-5480-433D-AAC4-724ACBEDF2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114E909B-AAD1-4712-AB46-A6D21745DF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE27C437-180F-4D0C-8918-79CF7EDA8AC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appointments" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +38,24 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>10:00</t>
   </si>
 </sst>
 </file>
@@ -60,7 +64,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -88,13 +92,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -402,23 +406,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D2401E-6925-4482-87D9-167F62FCD2F8}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,10 +439,32 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:F2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/ServidorDentista.xlsx
+++ b/ServidorDentista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mamut\Desktop\PWebDent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114E909B-AAD1-4712-AB46-A6D21745DF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84020E5B-6EB8-47D1-8BE9-D4683F150B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>10:00</t>
+  </si>
+  <si>
+    <t>Antonio Hernandez</t>
+  </si>
+  <si>
+    <t>antonio.hernandezmm@gmail.com</t>
+  </si>
+  <si>
+    <t>95212026</t>
+  </si>
+  <si>
+    <t>+54 (11) 24097694</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>02:18</t>
   </si>
 </sst>
 </file>
@@ -407,18 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" customWidth="1"/>
-    <col min="2" max="2" width="19.09765625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="29.19921875" customWidth="1"/>
+    <col min="2" max="2" width="35.796875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -461,10 +476,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>